--- a/taxonomy_tree.xlsx
+++ b/taxonomy_tree.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharonklinkenberg/GitHub/Statistics_Taxonomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C68E7F-089F-BE4E-8318-A045AF228B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE257C0-069C-9445-9E20-FCB983AC605B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17060" yWindow="500" windowWidth="34140" windowHeight="21100" xr2:uid="{6E62A4E4-07FD-0D42-8783-702D06A05F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="487">
   <si>
     <t>Measurement Level</t>
   </si>
@@ -788,36 +788,725 @@
     <t>Statistics Taxonomy</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>path</t>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Discrete variable</t>
+  </si>
+  <si>
+    <t>Continuous variable</t>
+  </si>
+  <si>
+    <t>Summary Statistics</t>
+  </si>
+  <si>
+    <t>Measures of Location</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Measures of Spread</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Interquartile Range</t>
+  </si>
+  <si>
+    <t>Bivariate statistics</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Covariance</t>
+  </si>
+  <si>
+    <t>Outliers</t>
+  </si>
+  <si>
+    <t>Odds ratio</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>Conditional proportion</t>
+  </si>
+  <si>
+    <t>Score interpretation</t>
+  </si>
+  <si>
+    <t>z-score</t>
+  </si>
+  <si>
+    <t>Percentile</t>
+  </si>
+  <si>
+    <t>Data representation</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>Bar graph</t>
+  </si>
+  <si>
+    <t>Boxplot</t>
+  </si>
+  <si>
+    <t>Scatterplot</t>
+  </si>
+  <si>
+    <t>Pie chart</t>
+  </si>
+  <si>
+    <t>Venn diagram</t>
+  </si>
+  <si>
+    <t>Stem and leaf plot</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Frequency table</t>
+  </si>
+  <si>
+    <t>Contingency table</t>
+  </si>
+  <si>
+    <t>Sampling Distributions</t>
+  </si>
+  <si>
+    <t>Sample mean</t>
+  </si>
+  <si>
+    <t>Sample proportion</t>
+  </si>
+  <si>
+    <t>Difference two means</t>
+  </si>
+  <si>
+    <t>NHST</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Null hypothesis</t>
+  </si>
+  <si>
+    <t>Alternative hypothesis</t>
+  </si>
+  <si>
+    <t>One sided hypothesis</t>
+  </si>
+  <si>
+    <t>Two sided hypothesis</t>
+  </si>
+  <si>
+    <t>Test statistic</t>
+  </si>
+  <si>
+    <t>t-statistic</t>
+  </si>
+  <si>
+    <t>F-statistic</t>
+  </si>
+  <si>
+    <t>Chi-squared</t>
+  </si>
+  <si>
+    <t>z-statistic</t>
+  </si>
+  <si>
+    <t>Statistical errors</t>
+  </si>
+  <si>
+    <t>Type I error</t>
+  </si>
+  <si>
+    <t>Type II error</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Significance level</t>
+  </si>
+  <si>
+    <t>Critical value</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Effect size</t>
+  </si>
+  <si>
+    <t>Cohen's d</t>
+  </si>
+  <si>
+    <t>Cramer's V</t>
+  </si>
+  <si>
+    <t>Phi coefficient</t>
+  </si>
+  <si>
+    <t>Eta squared</t>
+  </si>
+  <si>
+    <t>Omega squared</t>
+  </si>
+  <si>
+    <t>Confidence Intervals</t>
+  </si>
+  <si>
+    <t>Confidence level</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Margin of error</t>
+  </si>
+  <si>
+    <t>Parametric Techniques</t>
+  </si>
+  <si>
+    <t>z-test</t>
+  </si>
+  <si>
+    <t>One sample mean</t>
+  </si>
+  <si>
+    <t>Independent samples means</t>
+  </si>
+  <si>
+    <t>One proportion</t>
+  </si>
+  <si>
+    <t>Two proportions</t>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>Paired samples</t>
+  </si>
+  <si>
+    <t>Test for correlation</t>
+  </si>
+  <si>
+    <t>Correlations</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>Spearman</t>
+  </si>
+  <si>
+    <t>Point biserial</t>
+  </si>
+  <si>
+    <t>Biserial</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Cross tables</t>
+  </si>
+  <si>
+    <t>Chi-Squared for Independence</t>
+  </si>
+  <si>
+    <t>Chi-Squared for Homogeneity</t>
+  </si>
+  <si>
+    <t>Chi-Squared Goodness of Fit</t>
+  </si>
+  <si>
+    <t>Fisher's Exact Test</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Oneway ANOVA</t>
+  </si>
+  <si>
+    <t>Twoway ANOVA</t>
+  </si>
+  <si>
+    <t>Oneway repeated measures ANOVA</t>
+  </si>
+  <si>
+    <t>Twoway repeated measures ANOVA</t>
+  </si>
+  <si>
+    <t>Mixed design ANOVA</t>
+  </si>
+  <si>
+    <t>ANCOVA</t>
+  </si>
+  <si>
+    <t>MANOVA</t>
+  </si>
+  <si>
+    <t>MANCOVA</t>
+  </si>
+  <si>
+    <t>ANOVA F-test</t>
+  </si>
+  <si>
+    <t>Post-hoc test</t>
+  </si>
+  <si>
+    <t>One variance</t>
+  </si>
+  <si>
+    <t>Two variances</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Simple linear regression</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Sum of squares</t>
+  </si>
+  <si>
+    <t>Regression F-test</t>
+  </si>
+  <si>
+    <t>R squared</t>
+  </si>
+  <si>
+    <t>Standard error of the estimate</t>
+  </si>
+  <si>
+    <t>Standardized coefficient</t>
+  </si>
+  <si>
+    <t>Dummies</t>
+  </si>
+  <si>
+    <t>Confidence interval</t>
+  </si>
+  <si>
+    <t>Prediction interval</t>
+  </si>
+  <si>
+    <t>Coefficient t-test</t>
+  </si>
+  <si>
+    <t>Multiple linear regression</t>
+  </si>
+  <si>
+    <t>F-test for comparing (nested) models</t>
+  </si>
+  <si>
+    <t>R squared change</t>
+  </si>
+  <si>
+    <t>Moderation</t>
+  </si>
+  <si>
+    <t>Mediation</t>
+  </si>
+  <si>
+    <t>Suppression</t>
+  </si>
+  <si>
+    <t>Principal axis regression</t>
+  </si>
+  <si>
+    <t>Logistic regression</t>
+  </si>
+  <si>
+    <t>Odds</t>
+  </si>
+  <si>
+    <t>Probit regression</t>
+  </si>
+  <si>
+    <t>Multinomial logistic regression</t>
+  </si>
+  <si>
+    <t>Non-parametric Techniques</t>
+  </si>
+  <si>
+    <t>Sign test</t>
+  </si>
+  <si>
+    <t>Rank Sum test</t>
+  </si>
+  <si>
+    <t>Signed Rank test</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis test</t>
+  </si>
+  <si>
+    <t>Friedman's test</t>
+  </si>
+  <si>
+    <t>Permutation test</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>Bayesian Statistics</t>
+  </si>
+  <si>
+    <t>Prior</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Posterior</t>
+  </si>
+  <si>
+    <t>Credible intervals</t>
+  </si>
+  <si>
+    <t>Hypothesis test</t>
+  </si>
+  <si>
+    <t>Bayes factor</t>
+  </si>
+  <si>
+    <t>Parameter estimation</t>
+  </si>
+  <si>
+    <t>Informative hypothesis testing</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>Descriptive methods</t>
+  </si>
+  <si>
+    <t>Autocorrelation</t>
+  </si>
+  <si>
+    <t>Runs test</t>
+  </si>
+  <si>
+    <t>Seasonal variation</t>
+  </si>
+  <si>
+    <t>Arima models</t>
+  </si>
+  <si>
+    <t>Forecasting</t>
+  </si>
+  <si>
+    <t>Frequency domain</t>
+  </si>
+  <si>
+    <t>Multilevel Analysis</t>
+  </si>
+  <si>
+    <t>Elementary Probability</t>
+  </si>
+  <si>
+    <t>Sample Space</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>General Rules</t>
+  </si>
+  <si>
+    <t>Intersection</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Addition rule</t>
+  </si>
+  <si>
+    <t>Multiplication rule</t>
+  </si>
+  <si>
+    <t>Independent events</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Conditional probability</t>
+  </si>
+  <si>
+    <t>Random variables</t>
+  </si>
+  <si>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>Rules for expected values</t>
+  </si>
+  <si>
+    <t>Random sample</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>Binomial</t>
+  </si>
+  <si>
+    <t>Normal approximation to Binomial</t>
+  </si>
+  <si>
+    <t>Bernoulli</t>
+  </si>
+  <si>
+    <t>Geometric</t>
+  </si>
+  <si>
+    <t>Negative Binomial</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Hypergeometric</t>
+  </si>
+  <si>
+    <t>Multinominal</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>t-distribution</t>
+  </si>
+  <si>
+    <t>F-distribution</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Limit Theorems</t>
+  </si>
+  <si>
+    <t>Central Limit Theorem</t>
+  </si>
+  <si>
+    <t>Law of Large Numbers</t>
+  </si>
+  <si>
+    <t>Homogeneity of variance</t>
+  </si>
+  <si>
+    <t>Levene's test</t>
+  </si>
+  <si>
+    <t>Ratio of sample size</t>
+  </si>
+  <si>
+    <t>Ratio of variance</t>
+  </si>
+  <si>
+    <t>Sphericity</t>
+  </si>
+  <si>
+    <t>Mauchly's test</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>Normality</t>
+  </si>
+  <si>
+    <t>Shapiro-Wilks</t>
+  </si>
+  <si>
+    <t>Kolmogorov-Smirnov</t>
+  </si>
+  <si>
+    <t>Q-Q plot</t>
+  </si>
+  <si>
+    <t>Linearity</t>
+  </si>
+  <si>
+    <t>Homoscedasticity</t>
+  </si>
+  <si>
+    <t>Residual plot</t>
+  </si>
+  <si>
+    <t>Multicolinearity</t>
+  </si>
+  <si>
+    <t>VIF</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Principle component analysis</t>
+  </si>
+  <si>
+    <t>Exploratory factor analysis</t>
+  </si>
+  <si>
+    <t>Confirmatory factor analysis</t>
+  </si>
+  <si>
+    <t>Rotations</t>
+  </si>
+  <si>
+    <t>Eigenvalues</t>
+  </si>
+  <si>
+    <t>Factor loadings</t>
+  </si>
+  <si>
+    <t>Explained variance</t>
+  </si>
+  <si>
+    <t>Compontent correlation matrix</t>
+  </si>
+  <si>
+    <t>Scree plot</t>
+  </si>
+  <si>
+    <t>Pattern matrix</t>
+  </si>
+  <si>
+    <t>Structure matrix</t>
+  </si>
+  <si>
+    <t>Factor correlation matrix</t>
+  </si>
+  <si>
+    <t>Communalities</t>
+  </si>
+  <si>
+    <t>Factor scores</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Cronbach's alpha</t>
+  </si>
+  <si>
+    <t>Split half</t>
+  </si>
+  <si>
+    <t>Test-retest</t>
+  </si>
+  <si>
+    <t>Parallel forms</t>
+  </si>
+  <si>
+    <t>Descriptives</t>
+  </si>
+  <si>
+    <t>RIT</t>
+  </si>
+  <si>
+    <t>RIR</t>
+  </si>
+  <si>
+    <t>proportion correct</t>
+  </si>
+  <si>
+    <t>name_en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -843,10 +1532,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,2773 +1848,3527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795CCFFB-2EEB-A641-95A2-CC193EB07979}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s">
         <v>251</v>
-      </c>
-      <c r="B1" t="s">
-        <v>250</v>
       </c>
       <c r="C1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
+      <c r="D1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>11</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>11</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>32</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>32</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>32</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>31</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>44</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>44</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>43</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>49</v>
       </c>
       <c r="B56">
         <v>55</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <v>56</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>55</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>49</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>49</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>49</v>
       </c>
       <c r="B65">
         <v>64</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <v>65</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>49</v>
       </c>
       <c r="B67">
         <v>66</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>43</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>67</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>67</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>67</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>43</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
       <c r="B76">
         <v>75</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>73</v>
       </c>
       <c r="B77">
         <v>76</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>73</v>
       </c>
       <c r="B78">
         <v>77</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>43</v>
       </c>
       <c r="B79">
         <v>78</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <v>79</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <v>80</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
       <c r="B82">
         <v>81</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>79</v>
       </c>
       <c r="B83">
         <v>82</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>79</v>
       </c>
       <c r="B84">
         <v>83</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>78</v>
       </c>
       <c r="B85">
         <v>84</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <v>85</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
       <c r="B87">
         <v>86</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>84</v>
       </c>
       <c r="B88">
         <v>87</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>84</v>
       </c>
       <c r="B89">
         <v>88</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>78</v>
       </c>
       <c r="B90">
         <v>89</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <v>90</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
       <c r="B92">
         <v>91</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>89</v>
       </c>
       <c r="B93">
         <v>92</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>89</v>
       </c>
       <c r="B94">
         <v>93</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>89</v>
       </c>
       <c r="B95">
         <v>94</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>78</v>
       </c>
       <c r="B96">
         <v>95</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <v>96</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
       <c r="B98">
         <v>97</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>95</v>
       </c>
       <c r="B99">
         <v>98</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>95</v>
       </c>
       <c r="B100">
         <v>99</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>78</v>
       </c>
       <c r="B101">
         <v>100</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
         <v>101</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
       <c r="B103">
         <v>102</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>100</v>
       </c>
       <c r="B104">
         <v>103</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>100</v>
       </c>
       <c r="B105">
         <v>104</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>100</v>
       </c>
       <c r="B106">
         <v>105</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>100</v>
       </c>
       <c r="B107">
         <v>106</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>100</v>
       </c>
       <c r="B108">
         <v>107</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>100</v>
       </c>
       <c r="B109">
         <v>108</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>100</v>
       </c>
       <c r="B110">
         <v>109</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>100</v>
       </c>
       <c r="B111">
         <v>110</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>78</v>
       </c>
       <c r="B112">
         <v>111</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <v>112</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>111</v>
       </c>
       <c r="B114">
         <v>113</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>43</v>
       </c>
       <c r="B115">
         <v>114</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <v>115</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
       <c r="B117">
         <v>116</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>114</v>
       </c>
       <c r="B118">
         <v>117</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>114</v>
       </c>
       <c r="B119">
         <v>118</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>114</v>
       </c>
       <c r="B120">
         <v>119</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>114</v>
       </c>
       <c r="B121">
         <v>120</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>114</v>
       </c>
       <c r="B122">
         <v>121</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>114</v>
       </c>
       <c r="B123">
         <v>122</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>114</v>
       </c>
       <c r="B124">
         <v>123</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>114</v>
       </c>
       <c r="B125">
         <v>124</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>114</v>
       </c>
       <c r="B126">
         <v>125</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>114</v>
       </c>
       <c r="B127">
         <v>126</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>114</v>
       </c>
       <c r="B128">
         <v>127</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>114</v>
       </c>
       <c r="B129">
         <v>128</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>114</v>
       </c>
       <c r="B130">
         <v>129</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>114</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
         <v>131</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>130</v>
       </c>
       <c r="B133">
         <v>132</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>130</v>
       </c>
       <c r="B134">
         <v>133</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>130</v>
       </c>
       <c r="B135">
         <v>134</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>130</v>
       </c>
       <c r="B136">
         <v>135</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>114</v>
       </c>
       <c r="B137">
         <v>136</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>114</v>
       </c>
       <c r="B138">
         <v>137</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <v>138</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>137</v>
       </c>
       <c r="B140">
         <v>139</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>114</v>
       </c>
       <c r="B141">
         <v>140</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>114</v>
       </c>
       <c r="B142">
         <v>141</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>43</v>
       </c>
       <c r="B143">
         <v>142</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <v>143</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>142</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>142</v>
       </c>
       <c r="B146">
         <v>145</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>142</v>
       </c>
       <c r="B147">
         <v>146</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>142</v>
       </c>
       <c r="B148">
         <v>147</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
+      <c r="D148" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
         <v>142</v>
       </c>
       <c r="B149">
         <v>148</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>43</v>
       </c>
       <c r="B150">
         <v>149</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>43</v>
       </c>
       <c r="B151">
         <v>150</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
         <v>151</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>150</v>
       </c>
       <c r="B153">
         <v>152</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>150</v>
       </c>
       <c r="B154">
         <v>153</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>150</v>
       </c>
       <c r="B155">
         <v>154</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>150</v>
       </c>
       <c r="B156">
         <v>155</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>150</v>
       </c>
       <c r="B157">
         <v>156</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D157" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>150</v>
       </c>
       <c r="B158">
         <v>157</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>150</v>
       </c>
       <c r="B159">
         <v>158</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>43</v>
       </c>
       <c r="B160">
         <v>159</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <v>160</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>159</v>
       </c>
       <c r="B162">
         <v>161</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D162" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>159</v>
       </c>
       <c r="B163">
         <v>162</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>159</v>
       </c>
       <c r="B164">
         <v>163</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>159</v>
       </c>
       <c r="B165">
         <v>164</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>159</v>
       </c>
       <c r="B166">
         <v>165</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>159</v>
       </c>
       <c r="B167">
         <v>166</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>43</v>
       </c>
       <c r="B168">
         <v>167</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
       <c r="B169">
         <v>168</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <v>169</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <v>170</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>169</v>
       </c>
       <c r="B172">
         <v>171</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>169</v>
       </c>
       <c r="B173">
         <v>172</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
         <v>173</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>172</v>
       </c>
       <c r="B175">
         <v>174</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>172</v>
       </c>
       <c r="B176">
         <v>175</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>172</v>
       </c>
       <c r="B177">
         <v>176</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>172</v>
       </c>
       <c r="B178">
         <v>177</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>169</v>
       </c>
       <c r="B179">
         <v>178</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>169</v>
       </c>
       <c r="B180">
         <v>179</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>169</v>
       </c>
       <c r="B181">
         <v>180</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D181" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>169</v>
       </c>
       <c r="B182">
         <v>181</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183">
         <v>182</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D183" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>181</v>
       </c>
       <c r="B184">
         <v>183</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>181</v>
       </c>
       <c r="B185">
         <v>184</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>181</v>
       </c>
       <c r="B186">
         <v>185</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
       <c r="B187">
         <v>186</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188">
         <v>187</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C188" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189">
         <v>188</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>187</v>
       </c>
       <c r="B190">
         <v>189</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>187</v>
       </c>
       <c r="B191">
         <v>190</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>187</v>
       </c>
       <c r="B192">
         <v>191</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>187</v>
       </c>
       <c r="B193">
         <v>192</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>187</v>
       </c>
       <c r="B194">
         <v>193</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>187</v>
       </c>
       <c r="B195">
         <v>194</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>187</v>
       </c>
       <c r="B196">
         <v>195</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>186</v>
       </c>
       <c r="B197">
         <v>196</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198">
         <v>197</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>196</v>
       </c>
       <c r="B199">
         <v>198</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>196</v>
       </c>
       <c r="B200">
         <v>199</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C200" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>196</v>
       </c>
       <c r="B201">
         <v>200</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C201" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>196</v>
       </c>
       <c r="B202">
         <v>201</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C202" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D202" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>196</v>
       </c>
       <c r="B203">
         <v>202</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C203" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>196</v>
       </c>
       <c r="B204">
         <v>203</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C204" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>196</v>
       </c>
       <c r="B205">
         <v>204</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="C205" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>186</v>
       </c>
       <c r="B206">
         <v>205</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207">
         <v>206</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D207" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>205</v>
       </c>
       <c r="B208">
         <v>207</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
       <c r="B209">
         <v>208</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C209" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210">
         <v>209</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D210" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211">
         <v>210</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D211" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>209</v>
       </c>
       <c r="B212">
         <v>211</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D212" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>209</v>
       </c>
       <c r="B213">
         <v>212</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C213" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D213" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>208</v>
       </c>
       <c r="B214">
         <v>213</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C214" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D214" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215">
         <v>214</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C215" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D215" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>213</v>
       </c>
       <c r="B216">
         <v>215</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>208</v>
       </c>
       <c r="B217">
         <v>216</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218">
         <v>217</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C218" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D218" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>216</v>
       </c>
       <c r="B219">
         <v>218</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D219" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>216</v>
       </c>
       <c r="B220">
         <v>219</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D220" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>208</v>
       </c>
       <c r="B221">
         <v>220</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="C221" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D221" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>208</v>
       </c>
       <c r="B222">
         <v>221</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D222" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
       <c r="B223">
         <v>222</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C223" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D223" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>208</v>
       </c>
       <c r="B224">
         <v>223</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D224" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
       <c r="B225">
         <v>224</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>223</v>
       </c>
       <c r="B226">
         <v>225</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D226" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1</v>
       </c>
       <c r="B227">
         <v>226</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D227" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
       <c r="B228">
         <v>227</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C228" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D228" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>226</v>
       </c>
       <c r="B229">
         <v>228</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D229" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>226</v>
       </c>
       <c r="B230">
         <v>229</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D230" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>226</v>
       </c>
       <c r="B231">
         <v>230</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="C231" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D231" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>226</v>
       </c>
       <c r="B232">
         <v>231</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D232" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>226</v>
       </c>
       <c r="B233">
         <v>232</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="C233" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D233" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>226</v>
       </c>
       <c r="B234">
         <v>233</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D234" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>226</v>
       </c>
       <c r="B235">
         <v>234</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D235" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>226</v>
       </c>
       <c r="B236">
         <v>235</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>226</v>
       </c>
       <c r="B237">
         <v>236</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D237" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>226</v>
       </c>
       <c r="B238">
         <v>237</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D238" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>226</v>
       </c>
       <c r="B239">
         <v>238</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D239" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>226</v>
       </c>
       <c r="B240">
         <v>239</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D240" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>226</v>
       </c>
       <c r="B241">
         <v>240</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D241" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
       <c r="B242">
         <v>241</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D242" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
       <c r="B243">
         <v>242</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D243" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
       <c r="B244">
         <v>243</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D244" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>242</v>
       </c>
       <c r="B245">
         <v>244</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D245" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>242</v>
       </c>
       <c r="B246">
         <v>245</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D246" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>242</v>
       </c>
       <c r="B247">
         <v>246</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D247" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>241</v>
       </c>
       <c r="B248">
         <v>247</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D248" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
       <c r="B249">
         <v>248</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D249" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>247</v>
       </c>
       <c r="B250">
         <v>249</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="D250" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>247</v>
       </c>
       <c r="B251">
         <v>250</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" t="s">
         <v>248</v>
+      </c>
+      <c r="D251" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/taxonomy_tree.xlsx
+++ b/taxonomy_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharonklinkenberg/GitHub/Statistics_Taxonomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE257C0-069C-9445-9E20-FCB983AC605B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A002DAF0-A003-6D41-8A25-000B53E5D651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="500" windowWidth="34140" windowHeight="21100" xr2:uid="{6E62A4E4-07FD-0D42-8783-702D06A05F59}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{6E62A4E4-07FD-0D42-8783-702D06A05F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1851,13 +1851,13 @@
   <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
